--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-04 09:09:09</t>
+    <t>2016-07-04 09:09:50</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>1c6c813b-57cb-4dd7-8583-35a97b77e7ce.038f658be19e0eb48ad776c09a83d71ac2a0fb15.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-04 09:08:56</t>
+    <t>2016-07-04 09:09:41</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-04 09:09:50</t>
@@ -112,7 +112,7 @@
     <t>2016-07-04 09:09:41</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-04 09:10:28</t>
   </si>
   <si>
     <t>True</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>1c6c813b-57cb-4dd7-8583-35a97b77e7ce.038f658be19e0eb48ad776c09a83d71ac2a0fb15.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-04 09:10:43</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,13 +328,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -409,11 +412,11 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -437,6 +440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c6c813b-57cb-4dd7-8583-35a97b77e7ce.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="1c6c813b-57cb-4dd7-8583-35a97b77e7ce.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -455,13 +459,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -539,14 +543,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -567,6 +571,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1c6c813b-57cb-4dd7-8583-35a97b77e7ce.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="1c6c813b-57cb-4dd7-8583-35a97b77e7ce.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-07 06:43:14</t>
+    <t>2016-07-07 06:43:54</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>f6450744-acc6-499f-a3e2-6bd40706f371.14779851507d11de99aeca1763fdd1f9b1926eb0.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-07 06:42:53</t>
+    <t>2016-07-07 06:43:44</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-07 06:43:54</t>
@@ -112,7 +112,7 @@
     <t>2016-07-07 06:43:44</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-07 06:44:31</t>
   </si>
   <si>
     <t>True</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>f6450744-acc6-499f-a3e2-6bd40706f371.14779851507d11de99aeca1763fdd1f9b1926eb0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-07 06:44:48</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,13 +328,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -409,11 +412,11 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -437,6 +440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f6450744-acc6-499f-a3e2-6bd40706f371.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="f6450744-acc6-499f-a3e2-6bd40706f371.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -455,13 +459,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -539,14 +543,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -567,6 +571,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f6450744-acc6-499f-a3e2-6bd40706f371.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="f6450744-acc6-499f-a3e2-6bd40706f371.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-08 09:19:39</t>
+    <t>2016-07-08 09:20:22</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>3fd9f3c8-e795-46e2-a2b6-d288b25181c6.49a7283ca025ad5c39777e167721bdc5c63a8513.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-08 09:19:07</t>
+    <t>2016-07-08 09:20:13</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-08 09:20:22</t>
@@ -112,7 +112,7 @@
     <t>2016-07-08 09:20:13</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-08 09:20:52</t>
   </si>
   <si>
     <t>True</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>3fd9f3c8-e795-46e2-a2b6-d288b25181c6.49a7283ca025ad5c39777e167721bdc5c63a8513.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-08 09:21:10</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,13 +328,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -409,11 +412,11 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -437,6 +440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3fd9f3c8-e795-46e2-a2b6-d288b25181c6.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="3fd9f3c8-e795-46e2-a2b6-d288b25181c6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -455,13 +459,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -539,14 +543,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -567,6 +571,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3fd9f3c8-e795-46e2-a2b6-d288b25181c6.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="3fd9f3c8-e795-46e2-a2b6-d288b25181c6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2016-07-08 09:30:59</t>
@@ -121,7 +121,13 @@
     <t>False</t>
   </si>
   <si>
+    <t>The handback priority in file path mt\032a9fc0-b57a-43c8-bcef-3e8dfd2ba006.4f450a64dfbe2dab1d19b9d182a24e07c825aaca.zh-cn.xlf is not match with handoff type ht.</t>
+  </si>
+  <si>
     <t>032a9fc0-b57a-43c8-bcef-3e8dfd2ba006.4f450a64dfbe2dab1d19b9d182a24e07c825aaca.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\032a9fc0-b57a-43c8-bcef-3e8dfd2ba006.4f450a64dfbe2dab1d19b9d182a24e07c825aaca.de-de.xlf is not match with handoff type ht.</t>
   </si>
 </sst>
 </file>
@@ -253,8 +259,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="24.7426795959473" customWidth="1"/>
+    <col min="6" max="6" width="24.7426795959473" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,7 +331,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -337,7 +343,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -431,7 +437,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +461,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="24.7426795959473" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -467,7 +473,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,7 +540,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -561,7 +567,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-08 09:37:56</t>
+    <t>2016-07-08 09:38:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>dfcaed09-5f8d-46cf-bceb-5f19a319d325.528c62d9862c033eec9e586545c013c184a88100.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-08 09:37:45</t>
+    <t>2016-07-08 09:38:33</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-08 09:38:43</t>
@@ -253,8 +253,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,7 +325,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -455,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-07-08 09:38:43</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-08 09:39:48</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>dfcaed09-5f8d-46cf-bceb-5f19a319d325.528c62d9862c033eec9e586545c013c184a88100.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-08 09:38:33</t>
+    <t>2016-07-08 09:39:39</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -253,8 +253,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,7 +325,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -455,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-08 09:39:48</t>
@@ -112,7 +112,7 @@
     <t>2016-07-08 09:39:39</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-08 09:40:31</t>
   </si>
   <si>
     <t>True</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>dfcaed09-5f8d-46cf-bceb-5f19a319d325.528c62d9862c033eec9e586545c013c184a88100.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-08 09:40:45</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,13 +328,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -409,11 +412,11 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -437,6 +440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfcaed09-5f8d-46cf-bceb-5f19a319d325.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="dfcaed09-5f8d-46cf-bceb-5f19a319d325.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -455,13 +459,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -539,14 +543,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -567,6 +571,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfcaed09-5f8d-46cf-bceb-5f19a319d325.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="dfcaed09-5f8d-46cf-bceb-5f19a319d325.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-08 09:39:48</t>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-08 09:41:26</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>dfcaed09-5f8d-46cf-bceb-5f19a319d325.528c62d9862c033eec9e586545c013c184a88100.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-08 09:39:39</t>
+    <t>2016-07-08 09:41:17</t>
   </si>
   <si>
     <t>2016-07-08 09:40:31</t>
@@ -256,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -328,7 +328,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -459,7 +459,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-14 05:38:26</t>
@@ -112,7 +112,7 @@
     <t>2016-07-14 05:38:15</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-14 05:38:49</t>
   </si>
   <si>
     <t>True</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>8682d6ec-3df5-405f-99c6-7cf2171687ba.f7415d136f0b6c2b0c3a9dcfe4b7839e4d3d2d5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-14 05:39:04</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,13 +328,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -409,11 +412,11 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -437,6 +440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8682d6ec-3df5-405f-99c6-7cf2171687ba.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="8682d6ec-3df5-405f-99c6-7cf2171687ba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -455,13 +459,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -539,14 +543,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -567,6 +571,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8682d6ec-3df5-405f-99c6-7cf2171687ba.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="8682d6ec-3df5-405f-99c6-7cf2171687ba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-21 05:08:33</t>
@@ -280,8 +280,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,7 +400,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -626,7 +626,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-21 05:08:33</t>
@@ -127,7 +127,7 @@
     <t>2016-07-21 05:08:21</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-21 05:09:53</t>
   </si>
   <si>
     <t>True</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>05be2326-552a-4e3a-9c88-8d975d16d092.1fde00b3659457616adf853caf142bb87df3e450.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-21 05:10:13</t>
   </si>
   <si>
     <t>c1063b1a-bb02-4a33-b256-190956ed179b.cb1e44fd7d8ea585e5e5b7f0c0c0e6db5b175e35.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,13 +403,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -484,11 +487,11 @@
       <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -531,11 +534,11 @@
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>37</v>
@@ -578,11 +581,11 @@
       <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>37</v>
@@ -606,8 +609,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="05be2326-552a-4e3a-9c88-8d975d16d092.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c1063b1a-bb02-4a33-b256-190956ed179b.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="f968d062-3cf7-40ad-bdd8-f705231b7548.yml" r:id="rId4"/>
+    <hyperlink ref="H2" display="05be2326-552a-4e3a-9c88-8d975d16d092.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c1063b1a-bb02-4a33-b256-190956ed179b.yml" r:id="rId4"/>
+    <hyperlink ref="H3" display="c1063b1a-bb02-4a33-b256-190956ed179b.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="f968d062-3cf7-40ad-bdd8-f705231b7548.yml" r:id="rId6"/>
+    <hyperlink ref="H4" display="f968d062-3cf7-40ad-bdd8-f705231b7548.yml" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -626,13 +632,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -710,14 +716,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -752,19 +758,19 @@
         <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -799,19 +805,19 @@
         <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -832,8 +838,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="05be2326-552a-4e3a-9c88-8d975d16d092.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c1063b1a-bb02-4a33-b256-190956ed179b.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="f968d062-3cf7-40ad-bdd8-f705231b7548.yml" r:id="rId4"/>
+    <hyperlink ref="H2" display="05be2326-552a-4e3a-9c88-8d975d16d092.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c1063b1a-bb02-4a33-b256-190956ed179b.yml" r:id="rId4"/>
+    <hyperlink ref="H3" display="c1063b1a-bb02-4a33-b256-190956ed179b.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="f968d062-3cf7-40ad-bdd8-f705231b7548.yml" r:id="rId6"/>
+    <hyperlink ref="H4" display="f968d062-3cf7-40ad-bdd8-f705231b7548.yml" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-26 07:25:38</t>
@@ -265,8 +265,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -361,7 +361,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -539,7 +539,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,24 @@
     <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
   </si>
   <si>
+    <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
+  </si>
+  <si>
+    <t>e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:58</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +148,25 @@
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
   </si>
   <si>
+    <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:49</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O5" headerRowCount="1">
+  <autoFilter ref="A1:O5"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O5" headerRowCount="1">
+  <autoFilter ref="A1:O5"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -238,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -255,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -265,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -339,10 +372,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -353,7 +434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,7 +442,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -378,49 +459,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -434,16 +515,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>10</v>
@@ -452,19 +533,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -481,39 +562,133 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -521,6 +696,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -531,7 +708,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,7 +716,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -556,49 +733,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -612,13 +789,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -630,19 +807,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -659,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -677,21 +854,115 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -699,6 +970,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -70,15 +70,18 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2016-07-26 07:27:38</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
     <t>2016-07-26 07:26:58</t>
   </si>
   <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,10 +154,13 @@
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-07-26 07:27:29</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-07-26 07:26:49</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
   </si>
   <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
@@ -415,7 +421,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -459,49 +465,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -515,16 +521,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>10</v>
@@ -533,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -562,37 +568,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -609,16 +615,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>10</v>
@@ -627,19 +633,19 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -656,16 +662,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>10</v>
@@ -674,19 +680,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -733,49 +739,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -789,13 +795,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -807,19 +813,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -836,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -854,19 +860,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -883,13 +889,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -901,19 +907,19 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -930,16 +936,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>10</v>
@@ -948,19 +954,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -55,6 +55,15 @@
     <t>2016-07-26 07:25:38</t>
   </si>
   <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:58</t>
+  </si>
+  <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
   </si>
   <si>
@@ -73,15 +82,6 @@
     <t>2016-07-26 07:27:38</t>
   </si>
   <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:58</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -148,6 +148,12 @@
     <t>False</t>
   </si>
   <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:49</t>
+  </si>
+  <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
   </si>
   <si>
@@ -157,22 +163,16 @@
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:49</t>
-  </si>
-  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
+  </si>
+  <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -375,15 +375,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -392,33 +392,33 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -427,9 +427,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +577,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>10</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -621,10 +621,10 @@
         <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>10</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>37</v>
@@ -701,9 +701,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -851,7 +851,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>10</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -898,7 +898,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>10</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>37</v>
@@ -975,9 +975,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -88,7 +88,7 @@
     <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
   </si>
   <si>
-    <t>2016-07-26 07:29:06</t>
+    <t>2016-07-26 07:29:46</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -175,7 +175,7 @@
     <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:28:55</t>
+    <t>2016-07-26 07:29:36</t>
   </si>
   <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>File Name</t>
   </si>
@@ -178,6 +178,12 @@
     <t>2016-07-26 07:29:36</t>
   </si>
   <si>
+    <t>2016-07-26 07:30:30</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:44</t>
   </si>
 </sst>
 </file>
@@ -495,14 +504,14 @@
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -762,14 +771,14 @@
       <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -784,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -794,6 +803,7 @@
     <hyperlink ref="A4" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
     <hyperlink ref="A5" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
     <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -817,14 +827,14 @@
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -891,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -938,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -985,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -1032,7 +1042,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -1079,19 +1089,19 @@
         <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1106,7 +1116,7 @@
         <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1116,6 +1126,7 @@
     <hyperlink ref="A4" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
     <hyperlink ref="A5" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
     <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -64,6 +64,15 @@
     <t>2016-07-26 07:26:58</t>
   </si>
   <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:46</t>
+  </si>
+  <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
   </si>
   <si>
@@ -82,15 +91,6 @@
     <t>2016-07-26 07:27:38</t>
   </si>
   <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:46</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -163,6 +163,18 @@
     <t>2016-07-26 07:26:49</t>
   </si>
   <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:36</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:30</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
+  </si>
+  <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
   </si>
   <si>
@@ -172,34 +184,22 @@
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:36</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:30</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
-  </si>
-  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
     <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
   </si>
   <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:44</t>
+  </si>
+  <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:44</t>
   </si>
 </sst>
 </file>
@@ -425,15 +425,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -442,33 +442,33 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -478,9 +478,9 @@
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="B4" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -675,16 +675,16 @@
         <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -699,18 +699,18 @@
         <v>46</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -719,10 +719,10 @@
         <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>10</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -766,19 +766,19 @@
         <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -793,17 +793,17 @@
         <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
+    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -998,16 +998,16 @@
         <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1022,18 +1022,18 @@
         <v>46</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -1042,10 +1042,10 @@
         <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>10</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -1089,19 +1089,19 @@
         <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1116,17 +1116,17 @@
         <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
+    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>File Name</t>
   </si>
@@ -79,15 +79,24 @@
     <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
   </si>
   <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:32:18</t>
+  </si>
+  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
     <t>e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-07-26 07:27:38</t>
   </si>
   <si>
@@ -178,6 +187,12 @@
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
   </si>
   <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:31:51</t>
+  </si>
+  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
@@ -197,6 +212,9 @@
   </si>
   <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -256,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O6" headerRowCount="1">
-  <autoFilter ref="A1:O6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O7" headerRowCount="1">
+  <autoFilter ref="A1:O7"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -280,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O6" headerRowCount="1">
-  <autoFilter ref="A1:O6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O7" headerRowCount="1">
+  <autoFilter ref="A1:O7"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -304,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -321,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,13 +492,37 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId6"/>
+    <hyperlink ref="B6" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -491,7 +533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,49 +558,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -572,16 +614,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>10</v>
@@ -590,19 +632,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -619,37 +661,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -666,40 +708,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -713,16 +755,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>10</v>
@@ -731,19 +773,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -760,16 +802,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -778,21 +820,68 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -803,7 +892,8 @@
     <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
     <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
     <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -814,7 +904,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -839,49 +929,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -895,13 +985,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -913,19 +1003,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -942,13 +1032,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -960,19 +1050,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -989,13 +1079,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -1004,25 +1094,25 @@
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1036,13 +1126,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -1054,19 +1144,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -1083,13 +1173,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -1101,21 +1191,68 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1126,7 +1263,8 @@
     <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
     <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
     <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:32:18</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
   </si>
   <si>
     <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2016-07-26 07:25:38</t>
   </si>
   <si>
@@ -79,24 +88,15 @@
     <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
   </si>
   <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
-  </si>
-  <si>
-    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+    <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
+  </si>
+  <si>
+    <t>e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 07:32:18</t>
-  </si>
-  <si>
-    <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
-  </si>
-  <si>
-    <t>e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
-  </si>
-  <si>
     <t>2016-07-26 07:27:38</t>
   </si>
   <si>
@@ -151,21 +151,27 @@
     <t>ht</t>
   </si>
   <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:31:51</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:25:25</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
   </si>
   <si>
@@ -187,18 +193,15 @@
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:31:51</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -466,15 +466,15 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -483,33 +483,33 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -517,11 +517,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -719,14 +719,14 @@
       <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -761,19 +761,19 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -788,18 +788,18 @@
         <v>49</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -808,10 +808,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -840,13 +840,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -887,12 +887,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
-    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
     <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
@@ -1090,14 +1090,14 @@
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1112,7 +1112,7 @@
         <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1132,19 +1132,19 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1159,18 +1159,18 @@
         <v>49</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -1182,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -1258,12 +1258,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
-    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
     <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,55 +37,58 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
+  </si>
+  <si>
+    <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:25:38</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:58</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:46</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+  </si>
+  <si>
+    <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+  </si>
+  <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
   </si>
   <si>
     <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:32:18</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
-  </si>
-  <si>
-    <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:25:38</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:58</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:46</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
-  </si>
-  <si>
-    <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:33:41</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
@@ -94,9 +97,6 @@
     <t>e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-07-26 07:27:38</t>
   </si>
   <si>
@@ -151,46 +151,46 @@
     <t>ht</t>
   </si>
   <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:25:25</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:49</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:36</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:30</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:31:51</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:25:25</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:49</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:36</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:30</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
+    <t>2016-07-26 07:33:31</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
@@ -199,22 +199,22 @@
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:44</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
+  </si>
+  <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:44</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -466,38 +466,38 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -517,11 +517,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -719,14 +719,14 @@
       <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -761,19 +761,19 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -788,18 +788,18 @@
         <v>49</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -808,10 +808,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -840,13 +840,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -887,12 +887,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
+    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
     <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
@@ -1090,14 +1090,14 @@
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1112,7 +1112,7 @@
         <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1132,19 +1132,19 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1159,18 +1159,18 @@
         <v>49</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -1182,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -1258,12 +1258,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
+    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
     <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -88,7 +88,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 07:33:41</t>
+    <t>2016-07-26 07:34:25</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
@@ -190,7 +190,7 @@
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:33:31</t>
+    <t>2016-07-26 07:34:16</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -91,6 +91,15 @@
     <t>2016-07-26 07:34:25</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:09</t>
+  </si>
+  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
@@ -193,6 +202,12 @@
     <t>2016-07-26 07:34:16</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:56</t>
+  </si>
+  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
@@ -215,6 +230,9 @@
   </si>
   <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -274,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O7" headerRowCount="1">
-  <autoFilter ref="A1:O7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O8" headerRowCount="1">
+  <autoFilter ref="A1:O8"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -298,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O7" headerRowCount="1">
-  <autoFilter ref="A1:O7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O8" headerRowCount="1">
+  <autoFilter ref="A1:O8"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -322,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -339,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -515,6 +533,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
@@ -522,7 +563,8 @@
     <hyperlink ref="B4" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId7"/>
+    <hyperlink ref="B7" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -533,7 +575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -558,49 +600,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -614,16 +656,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>10</v>
@@ -632,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -661,37 +703,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -708,40 +750,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -755,16 +797,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>10</v>
@@ -773,19 +815,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -802,16 +844,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -820,19 +862,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -849,16 +891,16 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -867,21 +909,68 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -893,7 +982,8 @@
     <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
     <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
     <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -904,7 +994,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -929,49 +1019,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -985,13 +1075,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1003,19 +1093,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -1032,13 +1122,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -1050,19 +1140,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -1079,13 +1169,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -1094,25 +1184,25 @@
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1126,13 +1216,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -1144,19 +1234,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -1173,13 +1263,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -1191,19 +1281,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -1220,13 +1310,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -1238,21 +1328,68 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1264,7 +1401,8 @@
     <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
     <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
     <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:09</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
   </si>
   <si>
     <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -91,15 +103,6 @@
     <t>2016-07-26 07:34:25</t>
   </si>
   <si>
-    <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
-  </si>
-  <si>
-    <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:35:09</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
@@ -160,6 +163,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:56</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:46</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
   </si>
   <si>
@@ -169,12 +187,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
   </si>
   <si>
@@ -202,18 +214,18 @@
     <t>2016-07-26 07:34:16</t>
   </si>
   <si>
-    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:34:56</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:36:00</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
   </si>
   <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -367,8 +376,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,21 +441,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -455,21 +464,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -478,21 +487,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -501,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -524,21 +533,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -547,23 +556,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId7"/>
+    <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
@@ -583,7 +592,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -600,49 +609,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -656,37 +665,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -700,40 +709,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -741,119 +750,119 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -862,19 +871,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -888,19 +897,19 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -909,19 +918,19 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>10</v>
@@ -929,25 +938,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>10</v>
@@ -956,19 +965,19 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>10</v>
@@ -976,14 +985,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
-    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1002,7 +1012,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -1019,49 +1029,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1075,37 +1085,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -1119,19 +1129,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>10</v>
@@ -1140,19 +1150,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -1160,119 +1170,119 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
@@ -1281,19 +1291,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -1307,19 +1317,19 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -1328,19 +1338,19 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>10</v>
@@ -1348,25 +1358,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>10</v>
@@ -1375,19 +1385,19 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>10</v>
@@ -1395,14 +1405,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId4"/>
-    <hyperlink ref="H4" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>File Name</t>
   </si>
@@ -103,6 +103,15 @@
     <t>2016-07-26 07:34:25</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:37:06</t>
+  </si>
+  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
@@ -214,6 +223,12 @@
     <t>2016-07-26 07:34:16</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:36:54</t>
+  </si>
+  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
@@ -242,6 +257,9 @@
   </si>
   <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -301,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O8" headerRowCount="1">
-  <autoFilter ref="A1:O8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O9" headerRowCount="1">
+  <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -325,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O8" headerRowCount="1">
-  <autoFilter ref="A1:O8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O9" headerRowCount="1">
+  <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -349,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -366,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +583,29 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
@@ -573,7 +614,8 @@
     <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId8"/>
+    <hyperlink ref="B8" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,7 +626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,49 +651,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -665,37 +707,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -712,37 +754,37 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -759,16 +801,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>10</v>
@@ -777,19 +819,19 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -806,40 +848,40 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -853,37 +895,37 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -900,16 +942,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -918,19 +960,19 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>10</v>
@@ -947,16 +989,16 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>10</v>
@@ -965,21 +1007,68 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -993,7 +1082,8 @@
     <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
     <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
     <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1004,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1029,49 +1119,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1085,13 +1175,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1100,22 +1190,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -1132,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -1150,19 +1240,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -1179,13 +1269,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -1197,19 +1287,19 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -1226,13 +1316,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -1241,25 +1331,25 @@
         <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1273,13 +1363,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1291,19 +1381,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -1320,13 +1410,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>28</v>
@@ -1338,19 +1428,19 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>10</v>
@@ -1367,13 +1457,13 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -1385,21 +1475,68 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1413,7 +1550,8 @@
     <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
     <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
     <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -55,15 +55,24 @@
     <t>2016-07-26 07:35:09</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:37:06</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
   </si>
   <si>
     <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2016-07-26 07:25:38</t>
   </si>
   <si>
@@ -103,15 +112,6 @@
     <t>2016-07-26 07:34:25</t>
   </si>
   <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
-  </si>
-  <si>
-    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:37:06</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
@@ -187,15 +187,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:36:54</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:25:25</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
   </si>
   <si>
@@ -223,12 +229,6 @@
     <t>2016-07-26 07:34:16</t>
   </si>
   <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:36:54</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>2016-07-26 07:36:00</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
+  </si>
+  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
   </si>
   <si>
@@ -257,9 +260,6 @@
   </si>
   <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -534,15 +534,15 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -551,33 +551,33 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -597,10 +597,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -609,12 +609,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId8"/>
+    <hyperlink ref="B3" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId8"/>
     <hyperlink ref="B9" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -859,14 +859,14 @@
       <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -881,7 +881,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -901,19 +901,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -928,18 +928,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1076,13 +1076,13 @@
   <hyperlinks>
     <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
     <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
+    <hyperlink ref="A3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId10"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
@@ -1327,14 +1327,14 @@
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1349,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1369,19 +1369,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1396,18 +1396,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -1419,7 +1419,7 @@
         <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1544,13 +1544,13 @@
   <hyperlinks>
     <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
     <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
+    <hyperlink ref="A3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId10"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -55,61 +55,61 @@
     <t>2016-07-26 07:35:09</t>
   </si>
   <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
+  </si>
+  <si>
+    <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:25:38</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:58</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:46</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+  </si>
+  <si>
+    <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:25</t>
+  </si>
+  <si>
     <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
   </si>
   <si>
     <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:37:06</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
-  </si>
-  <si>
-    <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:25:38</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:58</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:46</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
-  </si>
-  <si>
-    <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
-  </si>
-  <si>
-    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:34:25</t>
+    <t>2016-07-26 07:38:14</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
@@ -187,46 +187,46 @@
     <t>False</t>
   </si>
   <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:25:25</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:49</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:36</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:30</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:16</t>
+  </si>
+  <si>
     <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:36:54</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:25:25</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:49</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:36</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:30</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:34:16</t>
+    <t>2016-07-26 07:38:01</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
@@ -241,25 +241,25 @@
     <t>2016-07-26 07:36:00</t>
   </si>
   <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:44</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
+  </si>
+  <si>
     <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:44</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -534,38 +534,38 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -597,10 +597,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -609,12 +609,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId8"/>
+    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId8"/>
     <hyperlink ref="B9" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -859,14 +859,14 @@
       <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -881,7 +881,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -901,19 +901,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -928,18 +928,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -948,10 +948,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1076,13 +1076,13 @@
   <hyperlinks>
     <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
     <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId10"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
@@ -1327,14 +1327,14 @@
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1349,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1369,19 +1369,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1396,18 +1396,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -1419,7 +1419,7 @@
         <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1544,13 +1544,13 @@
   <hyperlinks>
     <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
     <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId10"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:38:14</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
   </si>
   <si>
     <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 07:35:09</t>
   </si>
   <si>
@@ -103,15 +112,6 @@
     <t>2016-07-26 07:34:25</t>
   </si>
   <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
-  </si>
-  <si>
-    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:38:14</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
@@ -172,6 +172,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:38:01</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:38:46</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
   </si>
   <si>
@@ -181,12 +196,6 @@
     <t>2016-07-26 07:35:46</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
   </si>
   <si>
@@ -223,18 +232,18 @@
     <t>2016-07-26 07:34:16</t>
   </si>
   <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:38:01</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:39:01</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
   </si>
   <si>
@@ -257,9 +266,6 @@
   </si>
   <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -459,33 +465,33 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -505,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -528,21 +534,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -551,33 +557,33 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -597,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -608,13 +614,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId8"/>
     <hyperlink ref="B9" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -751,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>50</v>
@@ -765,11 +771,11 @@
       <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>59</v>
@@ -792,13 +798,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -819,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -845,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -854,19 +860,19 @@
         <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -881,7 +887,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -892,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -901,19 +907,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -928,18 +934,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -948,10 +954,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -960,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
@@ -980,13 +986,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -995,10 +1001,10 @@
         <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>10</v>
@@ -1007,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
@@ -1033,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1042,10 +1048,10 @@
         <v>51</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>10</v>
@@ -1054,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>10</v>
@@ -1074,16 +1080,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1181,7 +1188,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1190,10 +1197,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -1219,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>50</v>
@@ -1228,19 +1235,19 @@
         <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -1260,13 +1267,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -1275,7 +1282,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -1287,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1313,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -1322,19 +1329,19 @@
         <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1349,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1360,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -1369,19 +1376,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1396,18 +1403,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -1416,10 +1423,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -1428,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
@@ -1448,13 +1455,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1463,7 +1470,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -1475,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
@@ -1501,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1510,7 +1517,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -1522,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>10</v>
@@ -1542,16 +1549,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>File Name</t>
   </si>
@@ -37,79 +37,79 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:09</t>
+  </si>
+  <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
+  </si>
+  <si>
+    <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:25:38</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:58</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:46</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+  </si>
+  <si>
+    <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:25</t>
+  </si>
+  <si>
     <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
   </si>
   <si>
     <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:38:14</t>
-  </si>
-  <si>
-    <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
-  </si>
-  <si>
-    <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:35:09</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
-  </si>
-  <si>
-    <t>e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:25:38</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:58</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:46</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
-  </si>
-  <si>
-    <t>e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
-  </si>
-  <si>
-    <t>e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:34:25</t>
+    <t>2016-07-26 07:39:41</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
@@ -172,64 +172,67 @@
     <t>ht</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:56</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:46</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:25:25</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:26:49</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:29:36</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:30</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:16</t>
+  </si>
+  <si>
     <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:38:01</t>
+    <t>2016-07-26 07:39:32</t>
   </si>
   <si>
     <t>2016-07-26 07:38:46</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:34:56</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:35:46</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:25:25</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:26:49</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:29:36</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:30</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/060f3e40ce7e4a3b78f1307ddf8435e8803a217b/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/de3594c173c46c509b2f58884fd909646dc32f3e/e2e/d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md.</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:34:16</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/2d9cab849dbdb688dee0a9be198e9e57f2e8ee06/e2e/764572f9-b085-46ab-8799-703da283ea79.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c566c0a63c74e60ab5c7f7d5347e1e5cc2a716c0/e2e/764572f9-b085-46ab-8799-703da283ea79.md.</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
@@ -238,34 +241,34 @@
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:36:00</t>
+  </si>
+  <si>
+    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:30:44</t>
+  </si>
+  <si>
+    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
+  </si>
+  <si>
     <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:39:01</t>
-  </si>
-  <si>
-    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:36:00</t>
-  </si>
-  <si>
-    <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ceaa8c31-441d-428a-91f5-de4fcc64abec.dfb5f420f1e41ff6950110b1f43e63ca7ffd8f59.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:30:44</t>
-  </si>
-  <si>
-    <t>dc4b74d3-812e-44d2-9ccf-bae023b8a914.c3dbb8ec57c7e327679f6760d8ec56d5c13e05c6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -465,21 +468,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -488,10 +491,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -511,10 +514,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -534,44 +537,44 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -580,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -603,10 +606,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -614,13 +617,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId8"/>
     <hyperlink ref="B9" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -757,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>50</v>
@@ -771,11 +774,11 @@
       <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>59</v>
@@ -798,13 +801,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -825,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -851,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -860,19 +863,19 @@
         <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -887,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -907,19 +910,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -934,18 +937,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -954,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -966,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
@@ -986,13 +989,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1001,19 +1004,19 @@
         <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
@@ -1028,7 +1031,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1039,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1048,10 +1051,10 @@
         <v>51</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>10</v>
@@ -1060,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>10</v>
@@ -1080,16 +1083,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
-    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
+    <hyperlink ref="H8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId11"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
@@ -1188,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1197,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -1226,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>50</v>
@@ -1235,19 +1238,19 @@
         <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -1267,13 +1270,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -1294,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1320,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -1334,14 +1337,14 @@
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1356,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1367,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -1376,19 +1379,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1403,18 +1406,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -1426,7 +1429,7 @@
         <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -1435,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
@@ -1455,13 +1458,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1475,14 +1478,14 @@
       <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>10</v>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
@@ -1497,7 +1500,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1508,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1517,7 +1520,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -1529,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>10</v>
@@ -1549,16 +1552,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
-    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
+    <hyperlink ref="H8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId11"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:39:41</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
   </si>
   <si>
     <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 07:35:09</t>
   </si>
   <si>
@@ -103,15 +112,6 @@
     <t>2016-07-26 07:34:25</t>
   </si>
   <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
-  </si>
-  <si>
-    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:39:41</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md</t>
   </si>
   <si>
@@ -172,6 +172,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:39:32</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:40:26</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
   </si>
   <si>
@@ -181,12 +196,6 @@
     <t>2016-07-26 07:35:46</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.1390381495324c47fa1da22ca2848a835ce001b0.zh-cn.xlf</t>
   </si>
   <si>
@@ -223,24 +232,18 @@
     <t>2016-07-26 07:34:16</t>
   </si>
   <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:39:32</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:38:46</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/2d9cab849dbdb688dee0a9be198e9e57f2e8ee06/e2e/764572f9-b085-46ab-8799-703da283ea79.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c566c0a63c74e60ab5c7f7d5347e1e5cc2a716c0/e2e/764572f9-b085-46ab-8799-703da283ea79.md.</t>
-  </si>
-  <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:27:29</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:40:42</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
   </si>
   <si>
@@ -263,12 +266,6 @@
   </si>
   <si>
     <t>689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.ddf352d754f2b02951b06b7f053d05c710f3b67a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:39:01</t>
   </si>
   <si>
     <t>85049ea7-dd01-4e3e-9940-3caa4db5c7a8.7191fab4bad7462dcc18564a4a68df2d84a68611.de-de.xlf</t>
@@ -468,33 +465,33 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -514,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -537,21 +534,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -560,33 +557,33 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
@@ -606,10 +603,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -617,13 +614,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId8"/>
     <hyperlink ref="B9" display="e2e\85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -760,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>50</v>
@@ -774,11 +771,11 @@
       <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>59</v>
@@ -801,13 +798,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -828,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -854,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -863,19 +860,19 @@
         <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -890,7 +887,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -901,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -910,19 +907,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -937,18 +934,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -957,10 +954,10 @@
         <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -969,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
@@ -989,13 +986,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1004,19 +1001,19 @@
         <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
@@ -1031,7 +1028,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1042,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1051,11 +1048,11 @@
         <v>51</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="H9" s="0" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>10</v>
@@ -1083,16 +1080,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
-    <hyperlink ref="H8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId11"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
@@ -1191,7 +1188,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1200,10 +1197,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -1229,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>50</v>
@@ -1238,19 +1235,19 @@
         <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -1270,13 +1267,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>50</v>
@@ -1297,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1323,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>50</v>
@@ -1337,14 +1334,14 @@
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1359,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1370,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -1379,19 +1376,19 @@
         <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1406,18 +1403,18 @@
         <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -1429,7 +1426,7 @@
         <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>10</v>
@@ -1438,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>10</v>
@@ -1458,13 +1455,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1478,14 +1475,14 @@
       <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>10</v>
@@ -1500,7 +1497,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1511,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1520,7 +1517,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -1532,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>10</v>
@@ -1552,16 +1549,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId6"/>
-    <hyperlink ref="H5" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId10"/>
-    <hyperlink ref="H8" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8b3faa42-7920-4b7d-9c22-6fbba0a4c92a.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="ceaa8c31-441d-428a-91f5-de4fcc64abec.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId8"/>
+    <hyperlink ref="H6" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="dc4b74d3-812e-44d2-9ccf-bae023b8a914.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="689c7d2d-7f4d-4059-bf7d-0f9fc08bdfc0.md" r:id="rId11"/>
     <hyperlink ref="A9" display="85049ea7-dd01-4e3e-9940-3caa4db5c7a8.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 07:42:11</t>
@@ -118,7 +118,7 @@
     <t>2016-07-26 07:41:58</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 07:42:43</t>
   </si>
   <si>
     <t>True</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:42:59</t>
   </si>
 </sst>
 </file>
@@ -259,8 +262,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -355,13 +358,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
     <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -439,11 +442,11 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -486,11 +489,11 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -514,7 +517,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -533,13 +538,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
     <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -617,14 +622,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -664,14 +669,14 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -692,7 +697,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:43:49</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -127,10 +133,22 @@
     <t>False</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:43:38</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/e041d4e93ecc40c76a16a49b2e1063742e79ad44/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/54bb97d8806095e7337de9c70b5ea15780d1e898/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:42:59</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -327,13 +345,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -370,54 +388,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -431,37 +449,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -475,43 +493,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -550,54 +568,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -611,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -626,22 +644,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -655,43 +673,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-26 07:43:49</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>test-content-1.md</t>
-  </si>
-  <si>
-    <t>e2e\test-content-1.md</t>
+    <t>file_full_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,49 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 07:45:51</t>
+    <t>2016-07-26 07:46:34</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_full_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -103,13 +145,13 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:45:41</t>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:46:24</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -121,7 +163,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.de-de.xlf</t>
+    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -178,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O9" headerRowCount="1">
+  <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -202,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O9" headerRowCount="1">
+  <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -226,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -243,14 +309,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.4339008331299" customWidth="1"/>
-    <col min="2" max="2" width="21.5097942352295" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -304,9 +370,177 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -317,13 +551,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -342,49 +576,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -398,16 +632,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>10</v>
@@ -416,27 +650,363 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -447,13 +1017,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -472,49 +1042,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -528,13 +1098,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -546,27 +1116,363 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_1.md</t>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -55,24 +55,6 @@
     <t>2016-07-26 07:46:34</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_2.md</t>
   </si>
   <si>
@@ -85,16 +67,19 @@
     <t>e2e\file_no_deleted_single_path.md</t>
   </si>
   <si>
+    <t>2016-07-26 07:47:20</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>e2e\file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_2.md</t>
+    <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md</t>
+  </si>
+  <si>
+    <t>e2e\newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -148,7 +133,7 @@
     <t>mt</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:46:24</t>
@@ -163,22 +148,16 @@
     <t>False</t>
   </si>
   <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-07-26 07:47:10</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+    <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.77fd6e9afb792f71add0b0231bb4268355017b15.zh-cn.xlf</t>
   </si>
   <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
@@ -188,6 +167,9 @@
   </si>
   <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.77fd6e9afb792f71add0b0231bb4268355017b15.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -244,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O9" headerRowCount="1">
-  <autoFilter ref="A1:O9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O6" headerRowCount="1">
+  <autoFilter ref="A1:O6"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +250,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O9" headerRowCount="1">
-  <autoFilter ref="A1:O9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O6" headerRowCount="1">
+  <autoFilter ref="A1:O6"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -309,14 +291,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
-    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -413,15 +395,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -441,10 +423,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -459,88 +441,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -551,13 +461,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -576,49 +486,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -632,37 +542,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -679,37 +589,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -726,13 +636,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>45</v>
@@ -744,19 +654,19 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -764,7 +674,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -773,37 +683,37 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -811,7 +721,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -820,13 +730,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>45</v>
@@ -838,175 +748,31 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1017,13 +783,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -1042,49 +808,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -1098,13 +864,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1116,19 +882,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -1145,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -1163,19 +929,19 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -1192,37 +958,37 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -1230,7 +996,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1239,13 +1005,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -1257,19 +1023,19 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -1277,7 +1043,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1286,193 +1052,49 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="O6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -49,33 +49,36 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:46:34</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 07:46:34</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_single_path.md</t>
-  </si>
-  <si>
     <t>2016-07-26 07:47:20</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md</t>
   </si>
   <si>
@@ -139,34 +142,43 @@
     <t>2016-07-26 07:46:24</t>
   </si>
   <si>
+    <t>2016-07-26 07:47:49</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:47:10</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/0527c952a88f9a48da28bf0d4f3dea0ae36bdc64/e2e/file_no_deleted_single_path.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/946f22b6089e2ad25bd8186e8effe702d3809bfd/e2e/file_no_deleted_single_path.md.</t>
+  </si>
+  <si>
+    <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.77fd6e9afb792f71add0b0231bb4268355017b15.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:47:10</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.77fd6e9afb792f71add0b0231bb4268355017b15.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-07-26 07:48:07</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
   <si>
     <t>newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.77fd6e9afb792f71add0b0231bb4268355017b15.de-de.xlf</t>
@@ -301,8 +313,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -395,61 +407,61 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_single_path.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -469,66 +481,66 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="34.977424621582" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -542,37 +554,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -589,37 +601,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -636,37 +648,37 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -674,73 +686,73 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
       </c>
@@ -748,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -769,10 +781,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId6"/>
+    <hyperlink ref="H2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -791,66 +807,66 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="34.977424621582" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -864,37 +880,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -911,37 +927,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -958,37 +974,37 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -996,73 +1012,73 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1070,19 +1086,19 @@
         <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -1091,10 +1107,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId6"/>
+    <hyperlink ref="H2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.8185a8ae-dccb-447a-a8ec-093fb849960b.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 07:49:08</t>
@@ -118,7 +118,7 @@
     <t>2016-07-26 07:48:56</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 07:49:47</t>
   </si>
   <si>
     <t>True</t>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:50:01</t>
   </si>
   <si>
     <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
@@ -265,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -361,13 +364,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -445,11 +448,11 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -492,11 +495,11 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -520,7 +523,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -539,13 +544,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -623,14 +628,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -665,19 +670,19 @@
         <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -698,7 +703,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,34 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
+  </si>
+  <si>
+    <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:49:08</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
   </si>
   <si>
     <t>e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:49:08</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
-    <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:50:58</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -112,31 +118,37 @@
     <t>ht</t>
   </si>
   <si>
+    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:48:56</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:49:47</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:48:56</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:49:47</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
+    <t>2016-07-26 07:50:48</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/96d584629245e8c531ed88f910d43a15e5288a0e/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/a0ee296da8b2d3ad42152affc0312d938f3847f3/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md.</t>
+  </si>
+  <si>
+    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:50:01</t>
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:50:01</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -333,19 +345,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -376,54 +388,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -437,37 +449,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -481,51 +493,51 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -556,54 +568,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -617,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -632,22 +644,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -661,51 +673,51 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,36 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
+  </si>
+  <si>
+    <t>e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:50:58</t>
+  </si>
+  <si>
     <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
   </si>
   <si>
     <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 07:49:08</t>
   </si>
   <si>
-    <t>8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
-  </si>
-  <si>
-    <t>e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:50:58</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -118,6 +115,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:50:48</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:51:48</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
   </si>
   <si>
@@ -127,28 +139,16 @@
     <t>2016-07-26 07:49:47</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:50:48</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/96d584629245e8c531ed88f910d43a15e5288a0e/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/a0ee296da8b2d3ad42152affc0312d938f3847f3/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md.</t>
+    <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:52:05</t>
   </si>
   <si>
     <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:50:01</t>
-  </si>
-  <si>
-    <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -345,19 +345,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -388,54 +388,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -449,37 +449,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -493,51 +493,51 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -568,54 +568,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -629,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -644,22 +644,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -673,51 +673,51 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,19 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:50:58</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
-    <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:49:08</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:52:49</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,7 +109,7 @@
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:50:48</t>
+    <t>2016-07-26 07:52:40</t>
   </si>
   <si>
     <t>2016-07-26 07:51:48</t>
@@ -130,25 +121,13 @@
     <t>False</t>
   </si>
   <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:48:56</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:49:47</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/a0ee296da8b2d3ad42152affc0312d938f3847f3/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c452ad94a077bc441d68911ae8f5a2e3be69def9/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md.</t>
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:52:05</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:50:01</t>
   </si>
 </sst>
 </file>
@@ -205,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -253,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -270,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -280,8 +259,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -331,33 +310,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -368,7 +323,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +331,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -388,54 +343,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -449,95 +404,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
     <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,7 +454,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +462,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -568,54 +474,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -629,13 +535,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -644,80 +550,31 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
     <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 07:52:49</t>
@@ -112,7 +112,7 @@
     <t>2016-07-26 07:52:40</t>
   </si>
   <si>
-    <t>2016-07-26 07:51:48</t>
+    <t>2016-07-26 07:53:28</t>
   </si>
   <si>
     <t>True</t>
@@ -121,13 +121,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/a0ee296da8b2d3ad42152affc0312d938f3847f3/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c452ad94a077bc441d68911ae8f5a2e3be69def9/e2e/8e704ed7-a182-4feb-8210-20c894755a9b.md.</t>
-  </si>
-  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:52:05</t>
+    <t>2016-07-26 07:53:43</t>
   </si>
 </sst>
 </file>
@@ -259,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -331,7 +328,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -343,7 +340,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,7 +434,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +459,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -474,7 +471,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,7 +538,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -550,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -568,7 +565,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,36 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
+  </si>
+  <si>
+    <t>e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:54:31</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
   </si>
   <si>
     <t>e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 07:52:49</t>
   </si>
   <si>
-    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
-  </si>
-  <si>
-    <t>e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:54:31</t>
-  </si>
-  <si>
     <t>e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:54:21</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:55:10</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
   </si>
   <si>
@@ -133,28 +145,16 @@
     <t>2016-07-26 07:53:28</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:54:21</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:55:25</t>
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:53:43</t>
-  </si>
-  <si>
-    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -351,21 +351,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -374,19 +374,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -423,49 +423,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -479,37 +479,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -523,40 +523,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -564,46 +564,46 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -611,10 +611,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -650,49 +652,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -706,13 +708,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -721,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -750,40 +752,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -791,46 +793,46 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -838,10 +840,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -79,7 +79,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 07:56:22</t>
+    <t>2016-07-26 07:57:00</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -160,7 +160,7 @@
     <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:56:12</t>
+    <t>2016-07-26 07:56:51</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -163,7 +163,10 @@
     <t>2016-07-26 07:56:51</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 07:57:34</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/6f6abbae6c8d80265423d5840c0e322206cc103f/e2e/7c5c77fa-d6be-4679-b7a2-a34990993766.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/69c2e8741a61b3aac9d0d181d21398da95fc20d5/e2e/7c5c77fa-d6be-4679-b7a2-a34990993766.md.</t>
   </si>
   <si>
     <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:57:51</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -679,11 +685,11 @@
       <c r="G5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>49</v>
@@ -701,7 +707,7 @@
         <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -713,6 +719,7 @@
     <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
     <hyperlink ref="H4" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId7"/>
     <hyperlink ref="A5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -743,7 +750,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -810,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -819,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -857,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -866,10 +873,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -904,7 +911,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -913,10 +920,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -951,19 +958,19 @@
         <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -978,7 +985,7 @@
         <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -990,6 +997,7 @@
     <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
     <hyperlink ref="H4" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId7"/>
     <hyperlink ref="A5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,15 @@
     <t>2016-07-26 07:54:31</t>
   </si>
   <si>
+    <t>7c5c77fa-d6be-4679-b7a2-a34990993766.md</t>
+  </si>
+  <si>
+    <t>e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:57:00</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
   </si>
   <si>
@@ -70,18 +79,6 @@
     <t>e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md</t>
   </si>
   <si>
-    <t>7c5c77fa-d6be-4679-b7a2-a34990993766.md</t>
-  </si>
-  <si>
-    <t>e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:57:00</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
     <t>False</t>
   </si>
   <si>
+    <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:56:51</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:58:33</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
   </si>
   <si>
@@ -157,34 +163,22 @@
     <t>2016-07-26 07:53:28</t>
   </si>
   <si>
-    <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:56:51</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:57:34</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/6f6abbae6c8d80265423d5840c0e322206cc103f/e2e/7c5c77fa-d6be-4679-b7a2-a34990993766.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/69c2e8741a61b3aac9d0d181d21398da95fc20d5/e2e/7c5c77fa-d6be-4679-b7a2-a34990993766.md.</t>
-  </si>
-  <si>
     <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:55:25</t>
   </si>
   <si>
+    <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:58:49</t>
+  </si>
+  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:53:43</t>
-  </si>
-  <si>
-    <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:57:51</t>
   </si>
 </sst>
 </file>
@@ -410,15 +404,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -427,21 +421,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -472,54 +466,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -533,37 +527,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -580,37 +574,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -627,37 +621,37 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -665,61 +659,61 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
     <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId8"/>
-    <hyperlink ref="H5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -750,54 +744,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -811,13 +805,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -826,22 +820,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -858,13 +852,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -873,22 +867,22 @@
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -905,37 +899,37 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -943,61 +937,61 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
     <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId8"/>
-    <hyperlink ref="H5" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -88,7 +88,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 07:59:45</t>
+    <t>2016-07-26 08:00:30</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -178,7 +178,7 @@
     <t>09256200-22bc-4082-b299-efec9da78517.2e24a24d793fa3436503ba5bd7a56d9d947834f1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:59:35</t>
+    <t>2016-07-26 08:00:18</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>09256200-22bc-4082-b299-efec9da78517.md</t>
+  </si>
+  <si>
+    <t>e2e\09256200-22bc-4082-b299-efec9da78517.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:00:30</t>
+  </si>
+  <si>
     <t>2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
   </si>
   <si>
     <t>e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 07:54:31</t>
   </si>
   <si>
@@ -79,18 +88,6 @@
     <t>e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md</t>
   </si>
   <si>
-    <t>09256200-22bc-4082-b299-efec9da78517.md</t>
-  </si>
-  <si>
-    <t>e2e\09256200-22bc-4082-b299-efec9da78517.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:00:30</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>09256200-22bc-4082-b299-efec9da78517.2e24a24d793fa3436503ba5bd7a56d9d947834f1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:00:18</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:01:09</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.zh-cn.xlf</t>
   </si>
   <si>
@@ -151,12 +163,6 @@
     <t>2016-07-26 07:55:10</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.zh-cn.xlf</t>
   </si>
   <si>
@@ -175,13 +181,10 @@
     <t>2016-07-26 07:53:28</t>
   </si>
   <si>
-    <t>09256200-22bc-4082-b299-efec9da78517.2e24a24d793fa3436503ba5bd7a56d9d947834f1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:00:18</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>09256200-22bc-4082-b299-efec9da78517.2e24a24d793fa3436503ba5bd7a56d9d947834f1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:01:25</t>
   </si>
   <si>
     <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>2016-07-26 07:53:43</t>
-  </si>
-  <si>
-    <t>09256200-22bc-4082-b299-efec9da78517.2e24a24d793fa3436503ba5bd7a56d9d947834f1.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -451,15 +451,15 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -468,22 +468,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\09256200-22bc-4082-b299-efec9da78517.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\09256200-22bc-4082-b299-efec9da78517.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -519,49 +519,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -575,37 +575,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -622,37 +622,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -669,37 +669,37 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -716,37 +716,37 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -754,46 +754,46 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -801,15 +801,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId8"/>
-    <hyperlink ref="H5" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="09256200-22bc-4082-b299-efec9da78517.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="09256200-22bc-4082-b299-efec9da78517.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="09256200-22bc-4082-b299-efec9da78517.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId10"/>
+    <hyperlink ref="H6" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -845,49 +846,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -901,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -916,22 +917,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -948,13 +949,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -963,22 +964,22 @@
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -995,13 +996,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -1010,22 +1011,22 @@
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -1042,37 +1043,37 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -1080,46 +1081,46 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>10</v>
@@ -1127,15 +1128,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId8"/>
-    <hyperlink ref="H5" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="09256200-22bc-4082-b299-efec9da78517.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="09256200-22bc-4082-b299-efec9da78517.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="09256200-22bc-4082-b299-efec9da78517.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId10"/>
+    <hyperlink ref="H6" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>File Name</t>
   </si>
@@ -202,6 +202,9 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Handback file name: gorf1ule.kt3 is different with handoff file name: 4d52d5a9-68ea-4adb-bcef-6f8ace341d40.86d74c28656562071004ba2f1585a152452816d4.zh-cn.</t>
+  </si>
+  <si>
     <t>09256200-22bc-4082-b299-efec9da78517.2e24a24d793fa3436503ba5bd7a56d9d947834f1.de-de.xlf</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
   </si>
   <si>
     <t>4d52d5a9-68ea-4adb-bcef-6f8ace341d40.86d74c28656562071004ba2f1585a152452816d4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Handback file name: gorf1ule.kt3 is different with handoff file name: 4d52d5a9-68ea-4adb-bcef-6f8ace341d40.86d74c28656562071004ba2f1585a152452816d4.de-de.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -891,7 +897,7 @@
         <v>49</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +943,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1004,7 +1010,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1013,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -1051,7 +1057,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -1060,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -1098,7 +1104,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -1107,10 +1113,10 @@
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
@@ -1145,7 +1151,7 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -1154,10 +1160,10 @@
         <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
@@ -1192,7 +1198,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -1201,10 +1207,10 @@
         <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>10</v>
@@ -1239,7 +1245,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -1266,7 +1272,7 @@
         <v>49</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 08:06:19</t>
+    <t>2016-07-26 08:07:07</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>de258464-8020-4224-862f-d05d1444577b.0d3884e288fdbc5a8da79b6bac4a993e8fd60b8a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:06:06</t>
+    <t>2016-07-26 08:06:54</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>de258464-8020-4224-862f-d05d1444577b.md</t>
-  </si>
-  <si>
-    <t>e2e\de258464-8020-4224-862f-d05d1444577b.md</t>
+    <t>0fd03137-d045-4f89-b608-541ceb656119.md</t>
+  </si>
+  <si>
+    <t>e2e\0fd03137-d045-4f89-b608-541ceb656119.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 08:07:07</t>
+    <t>2016-07-26 08:07:51</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -106,10 +106,10 @@
     <t>ht</t>
   </si>
   <si>
-    <t>de258464-8020-4224-862f-d05d1444577b.0d3884e288fdbc5a8da79b6bac4a993e8fd60b8a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:06:54</t>
+    <t>0fd03137-d045-4f89-b608-541ceb656119.13a06edb5b6890ad6752081af87ce7369f7f7275.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:07:41</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -121,7 +121,7 @@
     <t>False</t>
   </si>
   <si>
-    <t>de258464-8020-4224-862f-d05d1444577b.0d3884e288fdbc5a8da79b6bac4a993e8fd60b8a.de-de.xlf</t>
+    <t>0fd03137-d045-4f89-b608-541ceb656119.13a06edb5b6890ad6752081af87ce7369f7f7275.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\de258464-8020-4224-862f-d05d1444577b.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\0fd03137-d045-4f89-b608-541ceb656119.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -436,7 +436,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="de258464-8020-4224-862f-d05d1444577b.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="0fd03137-d045-4f89-b608-541ceb656119.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -566,7 +566,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="de258464-8020-4224-862f-d05d1444577b.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="0fd03137-d045-4f89-b608-541ceb656119.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 08:07:51</t>
+    <t>2016-07-26 08:08:37</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>0fd03137-d045-4f89-b608-541ceb656119.13a06edb5b6890ad6752081af87ce7369f7f7275.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:07:41</t>
+    <t>2016-07-26 08:08:27</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 08:08:37</t>
+    <t>2016-07-26 08:09:19</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>0fd03137-d045-4f89-b608-541ceb656119.13a06edb5b6890ad6752081af87ce7369f7f7275.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:08:27</t>
+    <t>2016-07-26 08:09:09</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>0fd03137-d045-4f89-b608-541ceb656119.md</t>
-  </si>
-  <si>
-    <t>e2e\0fd03137-d045-4f89-b608-541ceb656119.md</t>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
+  </si>
+  <si>
+    <t>e2e\dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,13 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 08:09:19</t>
+    <t>2016-07-26 08:09:56</t>
+  </si>
+  <si>
+    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
+  </si>
+  <si>
+    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -106,10 +112,10 @@
     <t>ht</t>
   </si>
   <si>
-    <t>0fd03137-d045-4f89-b608-541ceb656119.13a06edb5b6890ad6752081af87ce7369f7f7275.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:09</t>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:09:46</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -121,7 +127,7 @@
     <t>False</t>
   </si>
   <si>
-    <t>0fd03137-d045-4f89-b608-541ceb656119.13a06edb5b6890ad6752081af87ce7369f7f7275.de-de.xlf</t>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -178,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -202,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -226,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -243,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,9 +310,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\0fd03137-d045-4f89-b608-541ceb656119.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -317,7 +347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -342,49 +372,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -398,45 +428,93 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="F3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0fd03137-d045-4f89-b608-541ceb656119.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -447,7 +525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,49 +550,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -528,13 +606,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -546,27 +624,75 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0fd03137-d045-4f89-b608-541ceb656119.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 08:09:56</t>
@@ -118,7 +118,7 @@
     <t>2016-07-26 08:09:46</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 08:10:36</t>
   </si>
   <si>
     <t>True</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:10:51</t>
   </si>
 </sst>
 </file>
@@ -259,8 +262,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -355,13 +358,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -439,11 +442,11 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -486,11 +489,11 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -514,7 +517,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -533,13 +538,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -617,14 +622,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -664,14 +669,14 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -692,7 +697,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+  </si>
+  <si>
+    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:16:19</t>
+  </si>
+  <si>
     <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
     <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 08:09:56</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:16:19</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:16:01</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:16:53</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,28 +148,16 @@
     <t>2016-07-26 08:10:36</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:16:01</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:17:15</t>
   </si>
   <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:10:51</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -360,15 +360,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -377,20 +377,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -426,49 +426,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -482,37 +482,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -529,37 +529,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -567,46 +567,46 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -614,11 +614,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -654,49 +655,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -710,37 +711,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -757,37 +758,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -795,46 +796,46 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -842,11 +843,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
+  </si>
+  <si>
+    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:09:56</t>
+  </si>
+  <si>
+    <t>ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+  </si>
+  <si>
+    <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+  </si>
+  <si>
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
   </si>
   <si>
     <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:16:19</t>
-  </si>
-  <si>
-    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:56</t>
-  </si>
-  <si>
-    <t>ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:18:23</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,43 +124,46 @@
     <t>ht</t>
   </si>
   <si>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:09:46</t>
+  </si>
+  <si>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:10:36</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:16:01</t>
+    <t>2016-07-26 08:18:12</t>
   </si>
   <si>
     <t>2016-07-26 08:16:53</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:46</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:36</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/7ec8a774275bb4ad34b70b7628de08316cabf757/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c12b45cb855e9f19397596abb6ff08427efb37ea/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md.</t>
+  </si>
+  <si>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:10:51</t>
   </si>
   <si>
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:17:15</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:51</t>
   </si>
 </sst>
 </file>
@@ -360,15 +366,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -377,20 +383,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -421,54 +427,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -482,37 +488,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -529,37 +535,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -567,59 +573,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -650,54 +656,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -711,37 +717,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -758,19 +764,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>46</v>
@@ -782,13 +788,13 @@
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -796,59 +802,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+  </si>
+  <si>
+    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:18:23</t>
+  </si>
+  <si>
     <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
     <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 08:09:56</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:18:23</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:18:12</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:19:25</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,34 +148,16 @@
     <t>2016-07-26 08:10:36</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:18:12</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:16:53</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/7ec8a774275bb4ad34b70b7628de08316cabf757/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c12b45cb855e9f19397596abb6ff08427efb37ea/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md.</t>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:19:43</t>
   </si>
   <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:10:51</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:17:15</t>
   </si>
 </sst>
 </file>
@@ -366,15 +360,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -383,20 +377,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -427,54 +421,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -488,37 +482,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -535,37 +529,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -573,59 +567,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -656,54 +650,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -717,37 +711,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -764,19 +758,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>46</v>
@@ -788,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -802,59 +796,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
+  </si>
+  <si>
+    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:09:56</t>
+  </si>
+  <si>
+    <t>ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+  </si>
+  <si>
+    <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+  </si>
+  <si>
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
   </si>
   <si>
     <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:18:23</t>
-  </si>
-  <si>
-    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:56</t>
-  </si>
-  <si>
-    <t>ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:20:40</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,43 +124,46 @@
     <t>ht</t>
   </si>
   <si>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:09:46</t>
+  </si>
+  <si>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:10:36</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:18:12</t>
+    <t>2016-07-26 08:20:30</t>
   </si>
   <si>
     <t>2016-07-26 08:19:25</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:46</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:36</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/c12b45cb855e9f19397596abb6ff08427efb37ea/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/18a71b264796044fae88c27d84ec4c93e5e2c444/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md.</t>
+  </si>
+  <si>
+    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:10:51</t>
   </si>
   <si>
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:19:43</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:51</t>
   </si>
 </sst>
 </file>
@@ -360,15 +366,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -377,20 +383,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -421,54 +427,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -482,37 +488,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -529,37 +535,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -567,59 +573,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -650,54 +656,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -711,37 +717,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -758,19 +764,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>46</v>
@@ -782,13 +788,13 @@
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -796,59 +802,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+  </si>
+  <si>
+    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:20:40</t>
+  </si>
+  <si>
     <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
     <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 08:09:56</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:20:40</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:20:30</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:21:15</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
   </si>
   <si>
@@ -136,34 +148,16 @@
     <t>2016-07-26 08:10:36</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:20:30</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:19:25</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/c12b45cb855e9f19397596abb6ff08427efb37ea/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/18a71b264796044fae88c27d84ec4c93e5e2c444/e2e/505d041b-0c10-4e8c-afde-d41eb890b5b2.md.</t>
+    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:21:29</t>
   </si>
   <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:10:51</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:19:43</t>
   </si>
 </sst>
 </file>
@@ -366,15 +360,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -383,20 +377,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -427,54 +421,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -488,37 +482,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -535,37 +529,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -573,59 +567,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -656,54 +650,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -717,37 +711,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -764,19 +758,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>46</v>
@@ -788,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -802,59 +796,59 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
     <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+    <t>88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
+  </si>
+  <si>
+    <t>e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,25 +49,16 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:20:40</t>
-  </si>
-  <si>
-    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:56</t>
-  </si>
-  <si>
-    <t>ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:22:25</t>
+  </si>
+  <si>
+    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
+  </si>
+  <si>
+    <t>e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,13 +112,13 @@
     <t>ht</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:20:30</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:21:15</t>
+    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:22:15</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
@@ -136,28 +127,13 @@
     <t>False</t>
   </si>
   <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:46</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:36</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:21:29</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:51</t>
+    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -214,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O4" headerRowCount="1">
-  <autoFilter ref="A1:O4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -238,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O4" headerRowCount="1">
-  <autoFilter ref="A1:O4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -262,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -279,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -289,8 +265,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -360,37 +336,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -401,7 +353,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,13 +361,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
+    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -426,49 +378,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -482,37 +434,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -529,97 +481,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -630,7 +531,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -638,13 +539,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
+    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -655,49 +556,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -711,37 +612,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -758,97 +659,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 08:22:25</t>
@@ -118,7 +118,7 @@
     <t>2016-07-26 08:22:15</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 08:23:14</t>
   </si>
   <si>
     <t>True</t>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:23:32</t>
   </si>
   <si>
     <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.de-de.xlf</t>
@@ -265,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -361,13 +364,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -445,11 +448,11 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -492,11 +495,11 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -520,7 +523,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -539,13 +544,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -623,14 +628,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -665,19 +670,19 @@
         <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -698,7 +703,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
-  </si>
-  <si>
-    <t>e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
+    <t>calleeMd1.md</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,16 +49,28 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:22:25</t>
-  </si>
-  <si>
-    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
-  </si>
-  <si>
-    <t>e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:25:17</t>
+  </si>
+  <si>
+    <t>calleeMd2.md</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd2.md</t>
+  </si>
+  <si>
+    <t>callerMd1.md</t>
+  </si>
+  <si>
+    <t>e2e\callerMd1.md</t>
+  </si>
+  <si>
+    <t>callerMd2.md</t>
+  </si>
+  <si>
+    <t>e2e\callerMd2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -112,31 +124,46 @@
     <t>ht</t>
   </si>
   <si>
-    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:22:15</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:23:14</t>
+    <t>calleeMd1.e8f5ecec2b522eb147a4ff0ca19ca72e17f2186d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:24:58</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>e2e\callerMd2.md,e2e\callerMd1.md</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:23:32</t>
-  </si>
-  <si>
-    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.de-de.xlf</t>
+    <t>calleeMd2.63b76063f058ecc63ff1dda71ea2a67db72ae6e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>callerMd1.a3bf9f4e7fa2750ec06df0b78a76ae5cafa0e0fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd1.md,e2e\calleeMd2.md</t>
+  </si>
+  <si>
+    <t>callerMd2.c7d976edeb9cd5406eae7aba4c05d6d92e81ae95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>calleeMd1.e8f5ecec2b522eb147a4ff0ca19ca72e17f2186d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>calleeMd2.63b76063f058ecc63ff1dda71ea2a67db72ae6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>callerMd1.a3bf9f4e7fa2750ec06df0b78a76ae5cafa0e0fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>callerMd2.c7d976edeb9cd5406eae7aba4c05d6d92e81ae95.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -193,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O5" headerRowCount="1">
+  <autoFilter ref="A1:O5"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O5" headerRowCount="1">
+  <autoFilter ref="A1:O5"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,18 +285,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="1" max="1" width="13.9728708267212" customWidth="1"/>
+    <col min="2" max="2" width="18.0487632751465" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,10 +369,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -356,74 +431,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
+    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
-    <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
+    <col min="11" max="11" width="35.2229614257813" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
-    <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
+    <col min="13" max="13" width="34.5784301757813" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
     <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -437,37 +512,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -484,48 +559,142 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -536,74 +705,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
+    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
-    <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
+    <col min="11" max="11" width="35.2229614257813" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
-    <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
+    <col min="13" max="13" width="34.5784301757813" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
     <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -617,37 +786,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -664,48 +833,142 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-07-26 08:25:56</t>
+    <t>2016-07-26 08:26:54</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>081c1e27-29ec-4044-a937-464bc093a7ba.64f745155fe404696f13c620095562739972832f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:25:45</t>
+    <t>2016-07-26 08:26:45</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-26 08:26:54</t>
@@ -253,8 +253,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,7 +325,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -455,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:26:54</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:28:33</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>081c1e27-29ec-4044-a937-464bc093a7ba.64f745155fe404696f13c620095562739972832f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:26:45</t>
+    <t>2016-07-26 08:28:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -253,8 +253,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,7 +325,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -455,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 08:28:33</t>
@@ -112,7 +112,7 @@
     <t>2016-07-26 08:28:22</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 08:29:24</t>
   </si>
   <si>
     <t>True</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>081c1e27-29ec-4044-a937-464bc093a7ba.64f745155fe404696f13c620095562739972832f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:29:41</t>
   </si>
 </sst>
 </file>
@@ -253,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,13 +328,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -409,11 +412,11 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -437,6 +440,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -455,13 +459,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -539,14 +543,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -567,6 +571,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:28:33</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:30:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,7 +109,7 @@
     <t>081c1e27-29ec-4044-a937-464bc093a7ba.64f745155fe404696f13c620095562739972832f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:28:22</t>
+    <t>2016-07-26 08:30:30</t>
   </si>
   <si>
     <t>2016-07-26 08:29:24</t>
@@ -256,8 +256,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -328,7 +328,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -459,7 +459,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-26 08:34:11</t>
@@ -265,8 +265,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -361,7 +361,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -539,7 +539,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-07-26 08:34:11</t>
@@ -118,7 +118,7 @@
     <t>2016-07-26 08:33:53</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-07-26 08:36:49</t>
   </si>
   <si>
     <t>True</t>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>1f3c8b00-000f-45e9-b050-b3bc76fbb242.3aa8cf18a7bfacfb27f89fc44d2495eb83ef5e81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:37:06</t>
   </si>
   <si>
     <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.de-de.xlf</t>
@@ -265,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -361,13 +364,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -445,11 +448,11 @@
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -492,11 +495,11 @@
       <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -520,7 +523,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -539,13 +544,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -623,14 +628,14 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -665,19 +670,19 @@
         <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -698,7 +703,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId3"/>
+    <hyperlink ref="H2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -55,24 +55,21 @@
     <t>2016-07-26 08:34:11</t>
   </si>
   <si>
+    <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md</t>
+  </si>
+  <si>
+    <t>e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:38:41</t>
+  </si>
+  <si>
     <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.md</t>
   </si>
   <si>
     <t>e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md</t>
   </si>
   <si>
-    <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md</t>
-  </si>
-  <si>
-    <t>e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:38:41</t>
-  </si>
-  <si>
     <t>eee3d053-174d-4d6c-ba06-2a09ac19320e.md</t>
   </si>
   <si>
@@ -145,18 +142,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.7f584df17e8c9d1c8fe4e63faebea5204a2cd1e4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:38:30</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:39:38</t>
+  </si>
+  <si>
     <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.7f584df17e8c9d1c8fe4e63faebea5204a2cd1e4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:38:30</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>eee3d053-174d-4d6c-ba06-2a09ac19320e.9001969266a5cae48df222f127353f18c206601e.zh-cn.xlf</t>
   </si>
   <si>
@@ -166,10 +163,13 @@
     <t>2016-07-26 08:37:06</t>
   </si>
   <si>
+    <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.7f584df17e8c9d1c8fe4e63faebea5204a2cd1e4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:39:56</t>
+  </si>
+  <si>
     <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.7f584df17e8c9d1c8fe4e63faebea5204a2cd1e4.de-de.xlf</t>
   </si>
   <si>
     <t>eee3d053-174d-4d6c-ba06-2a09ac19320e.9001969266a5cae48df222f127353f18c206601e.de-de.xlf</t>
@@ -375,15 +375,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -392,22 +392,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -415,20 +415,20 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -465,49 +465,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -521,37 +521,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -568,37 +568,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -606,46 +606,46 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -653,46 +653,46 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -702,10 +702,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
     <hyperlink ref="H2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -741,49 +743,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -797,13 +799,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -812,22 +814,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -844,37 +846,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -882,46 +884,46 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>10</v>
@@ -929,46 +931,46 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>10</v>
@@ -978,10 +980,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
     <hyperlink ref="H2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -55,19 +55,22 @@
     <t>2016-07-26 08:34:11</t>
   </si>
   <si>
+    <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.md</t>
+  </si>
+  <si>
+    <t>e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md</t>
+  </si>
+  <si>
     <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md</t>
   </si>
   <si>
     <t>e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md</t>
   </si>
   <si>
-    <t>2016-07-26 08:38:41</t>
-  </si>
-  <si>
-    <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.md</t>
-  </si>
-  <si>
-    <t>e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:41:13</t>
   </si>
   <si>
     <t>eee3d053-174d-4d6c-ba06-2a09ac19320e.md</t>
@@ -142,34 +145,40 @@
     <t>False</t>
   </si>
   <si>
+    <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.7f584df17e8c9d1c8fe4e63faebea5204a2cd1e4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:38:30</t>
+    <t>2016-07-26 08:40:55</t>
   </si>
   <si>
     <t>2016-07-26 08:39:38</t>
   </si>
   <si>
-    <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/ca0f89d8faedd5bc41d9c3486056421130e4cffa/e2e/4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/1b2e6f900b67befc491ea9e542f6957971c0da5e/e2e/4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md.</t>
   </si>
   <si>
     <t>eee3d053-174d-4d6c-ba06-2a09ac19320e.9001969266a5cae48df222f127353f18c206601e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/ca0f89d8faedd5bc41d9c3486056421130e4cffa/e2e/eee3d053-174d-4d6c-ba06-2a09ac19320e.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/1b2e6f900b67befc491ea9e542f6957971c0da5e/e2e/eee3d053-174d-4d6c-ba06-2a09ac19320e.md.</t>
+  </si>
+  <si>
     <t>1f3c8b00-000f-45e9-b050-b3bc76fbb242.3aa8cf18a7bfacfb27f89fc44d2495eb83ef5e81.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:37:06</t>
   </si>
   <si>
+    <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.de-de.xlf</t>
+  </si>
+  <si>
     <t>4cfae675-9f07-4a20-b6b2-c2a592ca1a50.7f584df17e8c9d1c8fe4e63faebea5204a2cd1e4.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 08:39:56</t>
-  </si>
-  <si>
-    <t>e4ffd833-e8e1-4f02-abe5-b8256465cc13.1544e3bee67428879dc991de4e80b0ac4397564c.de-de.xlf</t>
   </si>
   <si>
     <t>eee3d053-174d-4d6c-ba06-2a09ac19320e.9001969266a5cae48df222f127353f18c206601e.de-de.xlf</t>
@@ -375,60 +384,60 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -460,54 +469,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -521,37 +530,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -568,37 +577,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -606,106 +615,106 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
     <hyperlink ref="H2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId7"/>
     <hyperlink ref="A5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId8"/>
     <hyperlink ref="H5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId9"/>
   </hyperlinks>
@@ -738,54 +747,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -799,13 +808,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -814,22 +823,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -846,37 +855,37 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>10</v>
@@ -884,106 +893,106 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId2"/>
     <hyperlink ref="H2" display="1f3c8b00-000f-45e9-b050-b3bc76fbb242.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="e4ffd833-e8e1-4f02-abe5-b8256465cc13.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="4cfae675-9f07-4a20-b6b2-c2a592ca1a50.md" r:id="rId7"/>
     <hyperlink ref="A5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId8"/>
     <hyperlink ref="H5" display="eee3d053-174d-4d6c-ba06-2a09ac19320e.md" r:id="rId9"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-26 08:43:40</t>
@@ -253,8 +253,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -325,7 +325,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -455,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,18 @@
     <t>2016-07-26 08:43:40</t>
   </si>
   <si>
+    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:45:10</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -121,7 +133,16 @@
     <t>False</t>
   </si>
   <si>
+    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2ooooooooooooooooooooooooooooooooooooooooooo.3a3e6353173c90754af85d55a14c12cf138f50b1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:44:52</t>
+  </si>
+  <si>
     <t>a5419aea-9b5d-44c3-be56-ce030e743349ooooooooooooooooooooooooooooooooooooooooooo.d9feb21b02d140c63d42ec0210fe726f0a4dad8e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2ooooooooooooooooooooooooooooooooooooooooooo.3a3e6353173c90754af85d55a14c12cf138f50b1.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -178,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -202,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -226,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -243,7 +264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -253,8 +274,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -304,9 +325,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -317,7 +362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -325,7 +370,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -342,49 +387,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -398,16 +443,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>10</v>
@@ -416,27 +461,75 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -447,7 +540,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -455,7 +548,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -472,49 +565,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -528,13 +621,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -546,27 +639,75 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -37,36 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:45:10</t>
+  </si>
+  <si>
     <t>a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
   </si>
   <si>
     <t>e2e\a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
     <t>2016-07-26 08:43:40</t>
   </si>
   <si>
-    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>e2e\8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:45:10</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -118,6 +118,21 @@
     <t>ht</t>
   </si>
   <si>
+    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2ooooooooooooooooooooooooooooooooooooooooooo.3a3e6353173c90754af85d55a14c12cf138f50b1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:44:52</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:45:56</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>a5419aea-9b5d-44c3-be56-ce030e743349ooooooooooooooooooooooooooooooooooooooooooo.d9feb21b02d140c63d42ec0210fe726f0a4dad8e.zh-cn.xlf</t>
   </si>
   <si>
@@ -127,22 +142,13 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2ooooooooooooooooooooooooooooooooooooooooooo.3a3e6353173c90754af85d55a14c12cf138f50b1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:44:52</t>
+    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2ooooooooooooooooooooooooooooooooooooooooooo.3a3e6353173c90754af85d55a14c12cf138f50b1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:46:19</t>
   </si>
   <si>
     <t>a5419aea-9b5d-44c3-be56-ce030e743349ooooooooooooooooooooooooooooooooooooooooooo.d9feb21b02d140c63d42ec0210fe726f0a4dad8e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8c6a8702-48c5-4f60-a0a4-37bcd5e414b2ooooooooooooooooooooooooooooooooooooooooooo.3a3e6353173c90754af85d55a14c12cf138f50b1.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -274,8 +280,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -350,8 +356,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -370,13 +376,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -454,11 +460,11 @@
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>36</v>
@@ -508,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -528,8 +534,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,13 +555,13 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="25.2197074890137" customWidth="1"/>
-    <col min="8" max="8" width="18.6506061553955" customWidth="1"/>
-    <col min="9" max="9" width="21.7054767608643" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="27.1533012390137" customWidth="1"/>
     <col min="11" max="11" width="19.2982063293457" customWidth="1"/>
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
@@ -627,19 +634,19 @@
         <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -674,7 +681,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -686,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -706,8 +713,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="8c6a8702-48c5-4f60-a0a4-37bcd5e414b2oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a5419aea-9b5d-44c3-be56-ce030e743349oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-08-02 09:41:40</t>
@@ -118,7 +118,7 @@
     <t>2016-08-02 09:41:27</t>
   </si>
   <si>
-    <t>2016-07-26 07:42:43</t>
+    <t>2016-08-02 09:42:21</t>
   </si>
   <si>
     <t>True</t>
@@ -127,16 +127,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/e041d4e93ecc40c76a16a49b2e1063742e79ad44/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/e0f0a154746cf7bb58b4775775c7405801b460ca/e2e/a.md.</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/e041d4e93ecc40c76a16a49b2e1063742e79ad44/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/e0f0a154746cf7bb58b4775775c7405801b460ca/e2e/b.md.</t>
-  </si>
-  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:42:59</t>
+    <t>2016-08-02 09:42:36</t>
   </si>
 </sst>
 </file>
@@ -268,8 +262,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -364,7 +358,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -376,7 +370,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,7 +464,7 @@
         <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +511,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +538,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -556,7 +550,7 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,7 +617,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -632,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
@@ -650,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -670,7 +664,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -679,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
@@ -697,7 +691,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-08-02 09:43:15</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -127,10 +133,22 @@
     <t>False</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-08-02 09:43:05</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/e0f0a154746cf7bb58b4775775c7405801b460ca/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/175d2352a915787f1b9b0c1f3c639821dc22df30/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-08-02 09:42:36</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -327,13 +345,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -370,54 +388,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -431,37 +449,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -475,43 +493,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -550,54 +568,54 @@
     <col min="12" max="12" width="16.6648349761963" customWidth="1"/>
     <col min="13" max="13" width="19.7299385070801" customWidth="1"/>
     <col min="14" max="14" width="15.850474357605" customWidth="1"/>
-    <col min="15" max="15" width="13.7470531463623" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -611,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -626,22 +644,22 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>10</v>
@@ -655,43 +673,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-08-02 09:43:15</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-08-03 02:30:32</t>
@@ -124,22 +124,16 @@
     <t>2016-08-03 02:30:20</t>
   </si>
   <si>
-    <t>2016-08-02 09:42:21</t>
+    <t>2016-08-03 02:31:19</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/e0f0a154746cf7bb58b4775775c7405801b460ca/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md.</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/e0f0a154746cf7bb58b4775775c7405801b460ca/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/b.md.</t>
-  </si>
-  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-08-02 09:42:36</t>
+    <t>2016-08-03 02:31:35</t>
   </si>
 </sst>
 </file>
@@ -273,8 +267,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -369,7 +363,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,7 +376,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +526,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +553,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,7 +566,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,7 +639,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -672,7 +666,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -695,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -722,7 +716,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-08-03 02:32:52</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +136,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-08-03 02:32:42</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/8e8ac05a49cc49b5406ed6289b59b0839751135d/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-08-03 02:31:35</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -332,13 +350,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -376,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -440,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -487,46 +505,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -566,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -648,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -677,46 +695,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-08-03 02:32:52</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-08-05 02:32:18</t>
+    <t>2016-08-05 02:33:03</t>
   </si>
   <si>
     <t>b.md</t>
@@ -121,7 +121,7 @@
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-08-05 02:32:03</t>
+    <t>2016-08-05 02:32:50</t>
   </si>
   <si>
     <t>2016-08-03 02:31:19</t>
@@ -130,10 +130,10 @@
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/f8a0a8be1ae2b20593b890a0c3af2d8de672c270/e2e/a.md.</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/f8a0a8be1ae2b20593b890a0c3af2d8de672c270/e2e/b.md.</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/a.md.</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/b.md.</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-08-05 02:33:03</t>
@@ -124,22 +124,16 @@
     <t>2016-08-05 02:32:50</t>
   </si>
   <si>
-    <t>2016-08-03 02:31:19</t>
+    <t>2016-08-05 02:33:42</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/a.md.</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/b342cccd51e418fd787d5d107c1c5f8de858cc03/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/b.md.</t>
-  </si>
-  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-08-03 02:31:35</t>
+    <t>2016-08-05 02:34:00</t>
   </si>
 </sst>
 </file>
@@ -273,8 +267,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -369,7 +363,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,7 +376,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +526,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +553,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,7 +566,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,7 +639,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -672,7 +666,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -695,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -722,7 +716,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-08-05 02:34:47</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +136,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-08-05 02:34:37</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/df4b611567d87ab84d073ba2e8f2fc69d0f13c10/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-08-05 02:34:00</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -332,13 +350,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -376,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -440,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -487,46 +505,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -566,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -648,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -677,46 +695,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-08-05 02:34:47</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-08-05 02:42:53</t>
@@ -124,22 +124,16 @@
     <t>2016-08-05 02:42:37</t>
   </si>
   <si>
-    <t>2016-08-05 02:33:42</t>
+    <t>2016-08-05 02:43:50</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c556bfcb02303818985b426766897ec6b7a5faf3/e2e/a.md.</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/ea390eaa40dc00dc8afc058ae26070a94ecf6d1c/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/c556bfcb02303818985b426766897ec6b7a5faf3/e2e/b.md.</t>
-  </si>
-  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-08-05 02:34:00</t>
+    <t>2016-08-05 02:44:13</t>
   </si>
 </sst>
 </file>
@@ -273,8 +267,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -369,7 +363,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,7 +376,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +526,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +553,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,7 +566,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,7 +639,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -672,7 +666,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -695,7 +689,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -722,7 +716,7 @@
         <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-08-05 02:45:22</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +136,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-08-05 02:45:11</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/oltest/blob/c556bfcb02303818985b426766897ec6b7a5faf3/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/oltest/blob/e6b46ebf2a073f94f42b6f02f155efaa17aa1248/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-08-05 02:44:13</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -332,13 +350,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -376,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -440,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -487,46 +505,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -566,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -648,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -677,46 +695,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-08-05 02:45:22</t>
